--- a/docs/assets/downloads/QA review conversation tool.xlsx
+++ b/docs/assets/downloads/QA review conversation tool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Holly.Goss\github-pages-test\docs\assets\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACA0D8F-616F-4FE7-A547-8811EDB7861C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4D983E-468A-4AD3-87E6-C095607509CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2145" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-2145" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="179">
   <si>
     <t>Version 1.0 | May 2024</t>
   </si>
@@ -49,27 +49,6 @@
 </t>
   </si>
   <si>
-    <t>• This tool should be used at either the start of a new project or at regular intervals for cyclical releases.</t>
-  </si>
-  <si>
-    <t>• Go through the questions in this tool, using them as prompts for your discussion. There are overarching discussion questions or topics, with more detailed prompts underneath.</t>
-  </si>
-  <si>
-    <t>• Decide if you want to prioritise in-depth conversations for some stages over others - this will help make the most of your time.</t>
-  </si>
-  <si>
-    <t>• The document contains space to record your discussion and to note any agreed actions. These actions should be proportionate, and consider other requirements on the team's time.</t>
-  </si>
-  <si>
-    <t>•  Please use your judgement to decide whether it's useful to talk about all of your outputs at once, or to have separate discussions about each project.</t>
-  </si>
-  <si>
-    <t>• Not every question will be relevant to every team, so feel free to interpret these questions in whatever way is most relevant to your statistics.</t>
-  </si>
-  <si>
-    <t>•  The outcomes of these discussions should then inform your QA plan and QA logs which you should be using during QA activities. You can download a QA log template in the further information section below.</t>
-  </si>
-  <si>
     <t>Contents</t>
   </si>
   <si>
@@ -255,10 +234,6 @@
   </si>
   <si>
     <t>(e.g. QA checklist includes checking for missing, duplicated and extreme values and comparing number of rows/columns compared to previous data supplies as well as variable types. At the moment, some of these are manual checks rather than automated into the code. Need to communicate to users what we do to address missing data as this is a commonality within our project.)</t>
-  </si>
-  <si>
-    <t>(e.g. 1. Add section to publication/QMI report about missing data and the impact on quality for users.
-          2. Look into automating initial quality checks into code)</t>
   </si>
   <si>
     <t>Are the methods agreed to be the most suited for the project needs compared to other candidate methods? </t>
@@ -670,6 +645,20 @@
   </si>
   <si>
     <t>(e.g. 1. Review accessibility guidance and make the appropriate changes.)</t>
+  </si>
+  <si>
+    <t>Further links</t>
+  </si>
+  <si>
+    <t>Ensuring good quality assurance guidance</t>
+  </si>
+  <si>
+    <t>This tool should be used at either the start of a new project or at regular intervals for cyclical releases. Go through the questions in this tool, using them as prompts for your discussion. There are overarching discussion questions or topics, with more detailed prompts underneath. Decide if you want to prioritise in-depth conversations for some stages over others - this will help make the most of your time. 
+The document contains space to record your discussion and to note any agreed actions. These actions should be proportionate, and consider other requirements on the team's time. Please use your judgement to decide whether it's useful to talk about all of your outputs at once, or to have separate discussions about each project. Not every question will be relevant to every team, so feel free to interpret these questions in whatever way is most relevant to your statistics. The outcomes of these discussions should then inform your QA plan and QA logs which you should be using during QA activities.</t>
+  </si>
+  <si>
+    <t>(e.g. 1. Add section to publication/Quality and Methodology information report about missing data and the impact on quality for users.
+          2. Look into automating initial quality checks into code)</t>
   </si>
 </sst>
 </file>
@@ -788,7 +777,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -853,6 +842,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEDEDED"/>
         <bgColor rgb="FFEDEDED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -929,12 +924,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1092,6 +1081,12 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1101,17 +1096,11 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1124,6 +1113,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="25" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="25" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -1549,10 +1544,10 @@
   <sheetPr>
     <tabColor rgb="FFE2EFDA"/>
   </sheetPr>
-  <dimension ref="A1:AH26"/>
+  <dimension ref="A1:AH22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1591,11 +1586,11 @@
     </row>
     <row r="6" spans="1:34" s="2" customFormat="1" ht="129" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:34" customFormat="1" ht="23.15" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="7"/>
@@ -1632,9 +1627,9 @@
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
     </row>
-    <row r="8" spans="1:34" s="2" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>6</v>
+    <row r="8" spans="1:34" s="2" customFormat="1" ht="132" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -1642,370 +1637,161 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:34" customFormat="1" ht="29.5" customHeight="1">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:34" s="2" customFormat="1">
+      <c r="A9" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" s="2" customFormat="1">
+      <c r="A10" s="9" t="s">
         <v>7</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="2"/>
-    </row>
-    <row r="10" spans="1:34" customFormat="1" ht="22" customHeight="1">
-      <c r="A10" s="9" t="s">
-        <v>8</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
-      <c r="AH10" s="2"/>
-    </row>
-    <row r="11" spans="1:34" customFormat="1" ht="31.5" customHeight="1">
+    </row>
+    <row r="11" spans="1:34" s="2" customFormat="1">
       <c r="A11" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="2"/>
-      <c r="AH11" s="2"/>
-    </row>
-    <row r="12" spans="1:34" customFormat="1" ht="24.65" customHeight="1">
+    </row>
+    <row r="12" spans="1:34" s="2" customFormat="1">
       <c r="A12" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
-      <c r="AH12" s="2"/>
-    </row>
-    <row r="13" spans="1:34" customFormat="1" ht="23.5" customHeight="1">
+    </row>
+    <row r="13" spans="1:34" s="2" customFormat="1">
       <c r="A13" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="2"/>
-    </row>
-    <row r="14" spans="1:34" customFormat="1" ht="31.5" customHeight="1">
+    </row>
+    <row r="14" spans="1:34" s="2" customFormat="1">
       <c r="A14" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
-      <c r="AH14" s="2"/>
     </row>
     <row r="15" spans="1:34" s="2" customFormat="1">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:34" s="2" customFormat="1" ht="56.15" customHeight="1">
+      <c r="A16" s="10" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" s="2" customFormat="1">
-      <c r="A16" s="11" t="s">
-        <v>14</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:34" s="2" customFormat="1">
-      <c r="A17" s="11" t="s">
-        <v>15</v>
+    <row r="17" spans="1:34" s="2" customFormat="1" ht="29" customHeight="1">
+      <c r="A17" s="83" t="s">
+        <v>175</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:34" s="2" customFormat="1">
-      <c r="A18" s="11" t="s">
-        <v>16</v>
+    <row r="18" spans="1:34" s="2" customFormat="1" ht="29.5" customHeight="1">
+      <c r="A18" s="84" t="s">
+        <v>176</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:34" s="2" customFormat="1">
-      <c r="A19" s="11" t="s">
-        <v>17</v>
-      </c>
+    <row r="19" spans="1:34" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A19" s="12"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:34" s="2" customFormat="1">
-      <c r="A20" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="A20" s="13"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:34" s="2" customFormat="1">
-      <c r="A21" s="11" t="s">
-        <v>19</v>
-      </c>
+      <c r="A21" s="13"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:34" s="2" customFormat="1" ht="56.15" customHeight="1">
-      <c r="A22" s="12" t="s">
-        <v>20</v>
-      </c>
+    <row r="22" spans="1:34" customFormat="1">
+      <c r="A22" s="13"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:34" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A23" s="14"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:34" s="2" customFormat="1">
-      <c r="A24" s="15"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:34" s="2" customFormat="1">
-      <c r="A25" s="15"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:34" customFormat="1">
-      <c r="A26" s="15"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
-      <c r="AC26" s="2"/>
-      <c r="AD26" s="2"/>
-      <c r="AE26" s="2"/>
-      <c r="AF26" s="2"/>
-      <c r="AG26" s="2"/>
-      <c r="AH26" s="2"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A16" location="'1__Project_governance'!A1" display="1. Project governance" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A17" location="'2__Project_planning'!A1" display="2. Project planning" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A18" location="'3__Verification_&amp;_validation'!A1" display="3. Verification &amp; validation" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A19" location="'4__Reproducibility'!A1" display="4. Reproducibility" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A20" location="'5__Communication_&amp;_outputs'!A1" display="5. Communication and outputs" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A21" location="'Review and improve'!A1" display="6. Longer term review" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A10" location="'1__Project_governance'!A1" display="1. Project governance" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A11" location="'2__Project_planning'!A1" display="2. Project planning" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A12" location="'3__Verification_&amp;_validation'!A1" display="3. Verification &amp; validation" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A13" location="'4__Reproducibility'!A1" display="4. Reproducibility" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A14" location="'5__Communication_&amp;_outputs'!A1" display="5. Communication and outputs" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A15" location="'6_Longer_term_review'!A1" display="6. Longer term review" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A18" r:id="rId1" xr:uid="{A2EF4C43-AFD6-4354-9955-1A681598BE8E}"/>
   </hyperlinks>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2029,12 +1815,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" customFormat="1">
-      <c r="A1" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="A1" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -2078,12 +1864,12 @@
       <c r="AS1" s="2"/>
     </row>
     <row r="2" spans="1:45" customFormat="1">
-      <c r="A2" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
+      <c r="A2" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -2127,20 +1913,20 @@
       <c r="AS2" s="2"/>
     </row>
     <row r="3" spans="1:45" customFormat="1">
-      <c r="A3" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
+      <c r="A3" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
       <c r="M3" s="7"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2176,18 +1962,18 @@
       <c r="AS3" s="2"/>
     </row>
     <row r="4" spans="1:45" customFormat="1">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
       <c r="M4" s="7"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2223,8 +2009,8 @@
       <c r="AS4" s="2"/>
     </row>
     <row r="5" spans="1:45" customFormat="1" ht="18">
-      <c r="A5" s="17" t="s">
-        <v>24</v>
+      <c r="A5" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -2272,12 +2058,12 @@
       <c r="AS5" s="2"/>
     </row>
     <row r="6" spans="1:45" customFormat="1" ht="57.65" customHeight="1">
-      <c r="A6" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
+      <c r="A6" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -2321,8 +2107,8 @@
       <c r="AS6" s="2"/>
     </row>
     <row r="7" spans="1:45" customFormat="1" ht="15.5">
-      <c r="A7" s="19" t="s">
-        <v>26</v>
+      <c r="A7" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -2370,10 +2156,10 @@
       <c r="AS7" s="2"/>
     </row>
     <row r="8" spans="1:45" customFormat="1" ht="23.5" customHeight="1">
-      <c r="A8" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="21"/>
+      <c r="A8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="19"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -2419,10 +2205,10 @@
       <c r="AS8" s="2"/>
     </row>
     <row r="9" spans="1:45" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="21"/>
+      <c r="A9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="19"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -2468,10 +2254,10 @@
       <c r="AS9" s="2"/>
     </row>
     <row r="10" spans="1:45" customFormat="1" ht="22" customHeight="1">
-      <c r="A10" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="21"/>
+      <c r="A10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="19"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -2517,10 +2303,10 @@
       <c r="AS10" s="2"/>
     </row>
     <row r="11" spans="1:45" customFormat="1" ht="75" customHeight="1">
-      <c r="A11" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="21"/>
+      <c r="A11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="19"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -2566,10 +2352,10 @@
       <c r="AS11" s="2"/>
     </row>
     <row r="12" spans="1:45" customFormat="1" ht="69.650000000000006" customHeight="1">
-      <c r="A12" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="21"/>
+      <c r="A12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="19"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -2615,8 +2401,8 @@
       <c r="AS12" s="2"/>
     </row>
     <row r="13" spans="1:45" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A13" s="23" t="s">
-        <v>32</v>
+      <c r="A13" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -2664,10 +2450,10 @@
       <c r="AS13" s="2"/>
     </row>
     <row r="14" spans="1:45" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="A14" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="25"/>
+      <c r="A14" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="23"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -2713,10 +2499,10 @@
       <c r="AS14" s="2"/>
     </row>
     <row r="15" spans="1:45" customFormat="1" ht="19" customHeight="1">
-      <c r="A15" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="25"/>
+      <c r="A15" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="23"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -2762,10 +2548,10 @@
       <c r="AS15" s="2"/>
     </row>
     <row r="16" spans="1:45" customFormat="1" ht="18.649999999999999" customHeight="1">
-      <c r="A16" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="25"/>
+      <c r="A16" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="23"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -2811,10 +2597,10 @@
       <c r="AS16" s="2"/>
     </row>
     <row r="17" spans="1:45" customFormat="1" ht="18.649999999999999" customHeight="1">
-      <c r="A17" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="25"/>
+      <c r="A17" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="23"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -2860,10 +2646,10 @@
       <c r="AS17" s="2"/>
     </row>
     <row r="18" spans="1:45" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A18" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="25"/>
+      <c r="A18" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="23"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -2909,10 +2695,10 @@
       <c r="AS18" s="2"/>
     </row>
     <row r="19" spans="1:45" customFormat="1" ht="17.5" customHeight="1">
-      <c r="A19" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="25"/>
+      <c r="A19" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="23"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -2958,8 +2744,8 @@
       <c r="AS19" s="2"/>
     </row>
     <row r="20" spans="1:45" customFormat="1" ht="27" customHeight="1">
-      <c r="A20" s="26" t="s">
-        <v>39</v>
+      <c r="A20" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3007,10 +2793,10 @@
       <c r="AS20" s="2"/>
     </row>
     <row r="21" spans="1:45" customFormat="1" ht="45.9" customHeight="1">
-      <c r="A21" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="62"/>
+      <c r="A21" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="60"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -3056,8 +2842,8 @@
       <c r="AS21" s="2"/>
     </row>
     <row r="22" spans="1:45" customFormat="1" ht="30.65" customHeight="1">
-      <c r="A22" s="19" t="s">
-        <v>41</v>
+      <c r="A22" s="17" t="s">
+        <v>34</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -3105,10 +2891,10 @@
       <c r="AS22" s="2"/>
     </row>
     <row r="23" spans="1:45" customFormat="1" ht="47.4" customHeight="1">
-      <c r="A23" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="28"/>
+      <c r="A23" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="26"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -3154,10 +2940,10 @@
       <c r="AS23" s="2"/>
     </row>
     <row r="24" spans="1:45" customFormat="1" ht="50.15" customHeight="1">
-      <c r="A24" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="28"/>
+      <c r="A24" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="26"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -3203,10 +2989,10 @@
       <c r="AS24" s="2"/>
     </row>
     <row r="25" spans="1:45" customFormat="1" ht="51" customHeight="1">
-      <c r="A25" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="28"/>
+      <c r="A25" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="26"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -3252,8 +3038,8 @@
       <c r="AS25" s="2"/>
     </row>
     <row r="26" spans="1:45" customFormat="1" ht="32.15" customHeight="1">
-      <c r="A26" s="26" t="s">
-        <v>39</v>
+      <c r="A26" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -3301,10 +3087,10 @@
       <c r="AS26" s="2"/>
     </row>
     <row r="27" spans="1:45" customFormat="1" ht="35.4" customHeight="1">
-      <c r="A27" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="62"/>
+      <c r="A27" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="60"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -3350,8 +3136,8 @@
       <c r="AS27" s="2"/>
     </row>
     <row r="28" spans="1:45" customFormat="1" ht="29.15" customHeight="1">
-      <c r="A28" s="26" t="s">
-        <v>46</v>
+      <c r="A28" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -3399,10 +3185,10 @@
       <c r="AS28" s="2"/>
     </row>
     <row r="29" spans="1:45" customFormat="1" ht="35.15" customHeight="1">
-      <c r="A29" s="62" t="s">
-        <v>176</v>
-      </c>
-      <c r="B29" s="62"/>
+      <c r="A29" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="B29" s="60"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -3448,11 +3234,11 @@
       <c r="AS29" s="2"/>
     </row>
     <row r="31" spans="1:45" customFormat="1">
-      <c r="A31" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>48</v>
+      <c r="A31" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>41</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -3499,10 +3285,10 @@
       <c r="AS31" s="2"/>
     </row>
     <row r="32" spans="1:45" customFormat="1">
-      <c r="A32" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="21"/>
+      <c r="A32" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="19"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -3583,7 +3369,7 @@
   </sheetPr>
   <dimension ref="A1:BN29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -3596,12 +3382,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A1" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="A1" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
       <c r="E1" s="7"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3666,12 +3452,12 @@
       <c r="BN1" s="2"/>
     </row>
     <row r="2" spans="1:66" customFormat="1" ht="14.5" customHeight="1">
-      <c r="A2" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
+      <c r="A2" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
       <c r="E2" s="7"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3736,10 +3522,10 @@
       <c r="BN2" s="2"/>
     </row>
     <row r="3" spans="1:66" customFormat="1">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="7"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -3804,8 +3590,8 @@
       <c r="BN3" s="2"/>
     </row>
     <row r="4" spans="1:66" customFormat="1" ht="18">
-      <c r="A4" s="17" t="s">
-        <v>51</v>
+      <c r="A4" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -3873,21 +3659,21 @@
       <c r="BM4" s="2"/>
       <c r="BN4" s="2"/>
     </row>
-    <row r="5" spans="1:66" s="31" customFormat="1" ht="39.65" customHeight="1">
-      <c r="A5" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
+    <row r="5" spans="1:66" s="29" customFormat="1" ht="39.65" customHeight="1">
+      <c r="A5" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
     </row>
     <row r="6" spans="1:66" customFormat="1">
-      <c r="A6" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
+      <c r="A6" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -3952,8 +3738,8 @@
       <c r="BN6" s="7"/>
     </row>
     <row r="7" spans="1:66" customFormat="1">
-      <c r="A7" s="34" t="s">
-        <v>54</v>
+      <c r="A7" s="32" t="s">
+        <v>47</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -4022,8 +3808,8 @@
       <c r="BN7" s="7"/>
     </row>
     <row r="8" spans="1:66" customFormat="1">
-      <c r="A8" s="35" t="s">
-        <v>174</v>
+      <c r="A8" s="33" t="s">
+        <v>166</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -4092,8 +3878,8 @@
       <c r="BN8" s="7"/>
     </row>
     <row r="9" spans="1:66" customFormat="1">
-      <c r="A9" s="35" t="s">
-        <v>55</v>
+      <c r="A9" s="33" t="s">
+        <v>48</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -4162,8 +3948,8 @@
       <c r="BN9" s="7"/>
     </row>
     <row r="10" spans="1:66" customFormat="1">
-      <c r="A10" s="35" t="s">
-        <v>175</v>
+      <c r="A10" s="33" t="s">
+        <v>167</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -4232,8 +4018,8 @@
       <c r="BN10" s="7"/>
     </row>
     <row r="11" spans="1:66" customFormat="1">
-      <c r="A11" s="35" t="s">
-        <v>56</v>
+      <c r="A11" s="33" t="s">
+        <v>49</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -4302,8 +4088,8 @@
       <c r="BN11" s="7"/>
     </row>
     <row r="12" spans="1:66" customFormat="1" ht="26.5" customHeight="1">
-      <c r="A12" s="26" t="s">
-        <v>39</v>
+      <c r="A12" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -4323,12 +4109,12 @@
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:66" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A13" s="62" t="s">
-        <v>177</v>
-      </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
+      <c r="A13" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
       <c r="E13" s="7"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -4344,8 +4130,8 @@
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:66" customFormat="1" ht="29.5" customHeight="1">
-      <c r="A14" s="26" t="s">
-        <v>46</v>
+      <c r="A14" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -4365,12 +4151,12 @@
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:66" customFormat="1" ht="47.4" customHeight="1">
-      <c r="A15" s="62" t="s">
-        <v>178</v>
-      </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
+      <c r="A15" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
       <c r="E15" s="7"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -4386,10 +4172,10 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:66" customFormat="1" ht="16" customHeight="1">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="7"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -4405,11 +4191,11 @@
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:66" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="A17" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>48</v>
+      <c r="A17" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>41</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -4428,10 +4214,10 @@
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:66" customFormat="1" ht="20.5" customHeight="1">
-      <c r="A18" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="21"/>
+      <c r="A18" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="19"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -4448,94 +4234,94 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="1:66" s="39" customFormat="1" ht="14">
-      <c r="A19" s="38" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:66" s="40" customFormat="1" ht="14">
-      <c r="A20" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
-      <c r="W20" s="39"/>
-      <c r="X20" s="39"/>
-      <c r="Y20" s="39"/>
-      <c r="Z20" s="39"/>
-      <c r="AA20" s="39"/>
-      <c r="AB20" s="39"/>
-      <c r="AC20" s="39"/>
-      <c r="AD20" s="39"/>
-      <c r="AE20" s="39"/>
-      <c r="AF20" s="39"/>
-      <c r="AG20" s="39"/>
-      <c r="AH20" s="39"/>
-      <c r="AI20" s="39"/>
-      <c r="AJ20" s="39"/>
-      <c r="AK20" s="39"/>
-      <c r="AL20" s="39"/>
-      <c r="AM20" s="39"/>
-      <c r="AN20" s="39"/>
-      <c r="AO20" s="39"/>
-      <c r="AP20" s="39"/>
-      <c r="AQ20" s="39"/>
-      <c r="AR20" s="39"/>
-      <c r="AS20" s="39"/>
-      <c r="AT20" s="39"/>
-      <c r="AU20" s="39"/>
-      <c r="AV20" s="39"/>
-      <c r="AW20" s="39"/>
-      <c r="AX20" s="39"/>
-      <c r="AY20" s="39"/>
-      <c r="AZ20" s="39"/>
-      <c r="BA20" s="39"/>
-      <c r="BB20" s="39"/>
-      <c r="BC20" s="39"/>
-      <c r="BD20" s="39"/>
-      <c r="BE20" s="39"/>
-      <c r="BF20" s="39"/>
-      <c r="BG20" s="39"/>
-      <c r="BH20" s="39"/>
-      <c r="BI20" s="39"/>
-      <c r="BJ20" s="39"/>
-      <c r="BK20" s="39"/>
-      <c r="BL20" s="39"/>
-      <c r="BM20" s="39"/>
-      <c r="BN20" s="39"/>
-    </row>
-    <row r="21" spans="1:66" s="39" customFormat="1" ht="14">
-      <c r="A21" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:66" s="39" customFormat="1" ht="14">
-      <c r="A22" s="34" t="s">
-        <v>60</v>
+    <row r="19" spans="1:66" s="37" customFormat="1" ht="14">
+      <c r="A19" s="36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:66" s="38" customFormat="1" ht="14">
+      <c r="A20" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
+      <c r="AA20" s="37"/>
+      <c r="AB20" s="37"/>
+      <c r="AC20" s="37"/>
+      <c r="AD20" s="37"/>
+      <c r="AE20" s="37"/>
+      <c r="AF20" s="37"/>
+      <c r="AG20" s="37"/>
+      <c r="AH20" s="37"/>
+      <c r="AI20" s="37"/>
+      <c r="AJ20" s="37"/>
+      <c r="AK20" s="37"/>
+      <c r="AL20" s="37"/>
+      <c r="AM20" s="37"/>
+      <c r="AN20" s="37"/>
+      <c r="AO20" s="37"/>
+      <c r="AP20" s="37"/>
+      <c r="AQ20" s="37"/>
+      <c r="AR20" s="37"/>
+      <c r="AS20" s="37"/>
+      <c r="AT20" s="37"/>
+      <c r="AU20" s="37"/>
+      <c r="AV20" s="37"/>
+      <c r="AW20" s="37"/>
+      <c r="AX20" s="37"/>
+      <c r="AY20" s="37"/>
+      <c r="AZ20" s="37"/>
+      <c r="BA20" s="37"/>
+      <c r="BB20" s="37"/>
+      <c r="BC20" s="37"/>
+      <c r="BD20" s="37"/>
+      <c r="BE20" s="37"/>
+      <c r="BF20" s="37"/>
+      <c r="BG20" s="37"/>
+      <c r="BH20" s="37"/>
+      <c r="BI20" s="37"/>
+      <c r="BJ20" s="37"/>
+      <c r="BK20" s="37"/>
+      <c r="BL20" s="37"/>
+      <c r="BM20" s="37"/>
+      <c r="BN20" s="37"/>
+    </row>
+    <row r="21" spans="1:66" s="37" customFormat="1" ht="14">
+      <c r="A21" s="36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:66" s="37" customFormat="1" ht="14">
+      <c r="A22" s="32" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:66" customFormat="1" ht="25" customHeight="1">
-      <c r="A23" s="26" t="s">
-        <v>39</v>
+      <c r="A23" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -4555,10 +4341,10 @@
       <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="1:66" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A24" s="66"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
+      <c r="A24" s="64"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
       <c r="E24" s="7"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -4574,8 +4360,8 @@
       <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="1:66" customFormat="1" ht="23.5" customHeight="1">
-      <c r="A25" s="26" t="s">
-        <v>46</v>
+      <c r="A25" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -4595,10 +4381,10 @@
       <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="1:66" customFormat="1" ht="47.4" customHeight="1">
-      <c r="A26" s="66"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
+      <c r="A26" s="64"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
       <c r="E26" s="7"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -4614,11 +4400,11 @@
       <c r="Q26" s="2"/>
     </row>
     <row r="28" spans="1:66" customFormat="1" ht="19" customHeight="1">
-      <c r="A28" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>48</v>
+      <c r="A28" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>41</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -4637,10 +4423,10 @@
       <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="1:66" customFormat="1" ht="17.5" customHeight="1">
-      <c r="A29" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="21"/>
+      <c r="A29" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="19"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -4695,7 +4481,7 @@
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4708,12 +4494,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" customFormat="1" ht="17.5" customHeight="1">
-      <c r="A1" s="63" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="A1" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
       <c r="E1" s="7"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4729,12 +4515,12 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" customFormat="1">
-      <c r="A2" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
+      <c r="A2" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
       <c r="E2" s="7"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -4750,12 +4536,12 @@
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" customFormat="1" ht="14.5" customHeight="1">
-      <c r="A3" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
+      <c r="A3" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="7"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -4771,10 +4557,10 @@
       <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:17" customFormat="1">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="7"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -4790,8 +4576,8 @@
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" customFormat="1" ht="18">
-      <c r="A5" s="17" t="s">
-        <v>63</v>
+      <c r="A5" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -4811,12 +4597,12 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A6" s="71" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
+      <c r="A6" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
       <c r="E6" s="7"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -4832,12 +4618,12 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" customFormat="1" ht="21.65" customHeight="1">
-      <c r="A7" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
+      <c r="A7" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="7"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -4853,8 +4639,8 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" customFormat="1">
-      <c r="A8" s="38" t="s">
-        <v>66</v>
+      <c r="A8" s="36" t="s">
+        <v>59</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -4874,8 +4660,8 @@
       <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17" customFormat="1">
-      <c r="A9" s="38" t="s">
-        <v>67</v>
+      <c r="A9" s="36" t="s">
+        <v>60</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -4895,8 +4681,8 @@
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" customFormat="1">
-      <c r="A10" s="38" t="s">
-        <v>68</v>
+      <c r="A10" s="36" t="s">
+        <v>61</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -4916,8 +4702,8 @@
       <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17" customFormat="1">
-      <c r="A11" s="38" t="s">
-        <v>69</v>
+      <c r="A11" s="36" t="s">
+        <v>62</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -4937,8 +4723,8 @@
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" customFormat="1">
-      <c r="A12" s="38" t="s">
-        <v>70</v>
+      <c r="A12" s="36" t="s">
+        <v>63</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -4958,8 +4744,8 @@
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17" customFormat="1">
-      <c r="A13" s="38" t="s">
-        <v>71</v>
+      <c r="A13" s="36" t="s">
+        <v>64</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -4979,8 +4765,8 @@
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" customFormat="1">
-      <c r="A14" s="38" t="s">
-        <v>72</v>
+      <c r="A14" s="36" t="s">
+        <v>65</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -5000,8 +4786,8 @@
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" customFormat="1">
-      <c r="A15" s="38" t="s">
-        <v>73</v>
+      <c r="A15" s="36" t="s">
+        <v>66</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -5021,8 +4807,8 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" customFormat="1" ht="23.15" customHeight="1">
-      <c r="A16" s="26" t="s">
-        <v>39</v>
+      <c r="A16" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -5042,12 +4828,12 @@
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A17" s="72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
+      <c r="A17" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
       <c r="E17" s="7"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -5063,8 +4849,8 @@
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" customFormat="1" ht="23.15" customHeight="1">
-      <c r="A18" s="26" t="s">
-        <v>46</v>
+      <c r="A18" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -5084,12 +4870,12 @@
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="1:17" customFormat="1" ht="47.4" customHeight="1">
-      <c r="A19" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
+      <c r="A19" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
       <c r="E19" s="7"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -5105,11 +4891,11 @@
       <c r="Q19" s="2"/>
     </row>
     <row r="21" spans="1:17" customFormat="1" ht="19" customHeight="1">
-      <c r="A21" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>48</v>
+      <c r="A21" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>41</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -5128,10 +4914,10 @@
       <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="1:17" customFormat="1" ht="17.5" customHeight="1">
-      <c r="A22" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="21"/>
+      <c r="A22" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="19"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -5149,8 +4935,8 @@
       <c r="Q22" s="2"/>
     </row>
     <row r="23" spans="1:17" customFormat="1">
-      <c r="A23" s="35" t="s">
-        <v>76</v>
+      <c r="A23" s="33" t="s">
+        <v>68</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -5170,8 +4956,8 @@
       <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="1:17" customFormat="1">
-      <c r="A24" s="35" t="s">
-        <v>77</v>
+      <c r="A24" s="33" t="s">
+        <v>69</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -5191,8 +4977,8 @@
       <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="1:17" customFormat="1">
-      <c r="A25" s="35" t="s">
-        <v>78</v>
+      <c r="A25" s="33" t="s">
+        <v>70</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -5212,8 +4998,8 @@
       <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="1:17" customFormat="1">
-      <c r="A26" s="35" t="s">
-        <v>79</v>
+      <c r="A26" s="33" t="s">
+        <v>71</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -5233,8 +5019,8 @@
       <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="1:17" customFormat="1">
-      <c r="A27" s="35" t="s">
-        <v>80</v>
+      <c r="A27" s="33" t="s">
+        <v>72</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -5254,8 +5040,8 @@
       <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="1:17" customFormat="1">
-      <c r="A28" s="38" t="s">
-        <v>81</v>
+      <c r="A28" s="36" t="s">
+        <v>73</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -5275,8 +5061,8 @@
       <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="1:17" customFormat="1">
-      <c r="A29" s="38" t="s">
-        <v>82</v>
+      <c r="A29" s="36" t="s">
+        <v>74</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -5296,8 +5082,8 @@
       <c r="Q29" s="2"/>
     </row>
     <row r="30" spans="1:17" customFormat="1" ht="25" customHeight="1">
-      <c r="A30" s="26" t="s">
-        <v>39</v>
+      <c r="A30" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -5317,10 +5103,10 @@
       <c r="Q30" s="2"/>
     </row>
     <row r="31" spans="1:17" customFormat="1" ht="42.65" customHeight="1">
-      <c r="A31" s="66"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
+      <c r="A31" s="64"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
       <c r="E31" s="7"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -5336,8 +5122,8 @@
       <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="1:17" customFormat="1" ht="23.5" customHeight="1">
-      <c r="A32" s="26" t="s">
-        <v>46</v>
+      <c r="A32" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -5357,10 +5143,10 @@
       <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="1:17" customFormat="1" ht="45.65" customHeight="1">
-      <c r="A33" s="66"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
+      <c r="A33" s="64"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
       <c r="E33" s="7"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -5376,11 +5162,11 @@
       <c r="Q33" s="2"/>
     </row>
     <row r="35" spans="1:17" customFormat="1">
-      <c r="A35" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="37" t="s">
-        <v>48</v>
+      <c r="A35" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>41</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -5399,10 +5185,10 @@
       <c r="Q35" s="2"/>
     </row>
     <row r="36" spans="1:17" customFormat="1">
-      <c r="A36" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="21"/>
+      <c r="A36" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="19"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -5420,12 +5206,12 @@
       <c r="Q36" s="2"/>
     </row>
     <row r="37" spans="1:17" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A37" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
+      <c r="A37" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
       <c r="E37" s="7"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -5441,8 +5227,8 @@
       <c r="Q37" s="2"/>
     </row>
     <row r="38" spans="1:17" customFormat="1">
-      <c r="A38" s="38" t="s">
-        <v>84</v>
+      <c r="A38" s="36" t="s">
+        <v>76</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -5462,8 +5248,8 @@
       <c r="Q38" s="2"/>
     </row>
     <row r="39" spans="1:17" customFormat="1">
-      <c r="A39" s="38" t="s">
-        <v>85</v>
+      <c r="A39" s="36" t="s">
+        <v>77</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -5483,8 +5269,8 @@
       <c r="Q39" s="2"/>
     </row>
     <row r="40" spans="1:17" customFormat="1">
-      <c r="A40" s="38" t="s">
-        <v>86</v>
+      <c r="A40" s="36" t="s">
+        <v>78</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -5504,8 +5290,8 @@
       <c r="Q40" s="2"/>
     </row>
     <row r="41" spans="1:17" customFormat="1">
-      <c r="A41" s="38" t="s">
-        <v>87</v>
+      <c r="A41" s="36" t="s">
+        <v>79</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -5525,8 +5311,8 @@
       <c r="Q41" s="2"/>
     </row>
     <row r="42" spans="1:17" customFormat="1">
-      <c r="A42" s="44" t="s">
-        <v>88</v>
+      <c r="A42" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -5546,8 +5332,8 @@
       <c r="Q42" s="2"/>
     </row>
     <row r="43" spans="1:17" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="A43" s="26" t="s">
-        <v>39</v>
+      <c r="A43" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -5567,10 +5353,10 @@
       <c r="Q43" s="2"/>
     </row>
     <row r="44" spans="1:17" customFormat="1" ht="41.4" customHeight="1">
-      <c r="A44" s="66"/>
-      <c r="B44" s="66"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
+      <c r="A44" s="64"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
       <c r="E44" s="7"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -5586,8 +5372,8 @@
       <c r="Q44" s="2"/>
     </row>
     <row r="45" spans="1:17" customFormat="1" ht="22" customHeight="1">
-      <c r="A45" s="26" t="s">
-        <v>46</v>
+      <c r="A45" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -5607,10 +5393,10 @@
       <c r="Q45" s="2"/>
     </row>
     <row r="46" spans="1:17" customFormat="1" ht="42.9" customHeight="1">
-      <c r="A46" s="66"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
+      <c r="A46" s="64"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
       <c r="E46" s="7"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -5626,11 +5412,11 @@
       <c r="Q46" s="2"/>
     </row>
     <row r="48" spans="1:17" customFormat="1">
-      <c r="A48" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="37" t="s">
-        <v>48</v>
+      <c r="A48" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="35" t="s">
+        <v>41</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -5649,10 +5435,10 @@
       <c r="Q48" s="2"/>
     </row>
     <row r="49" spans="1:17" customFormat="1">
-      <c r="A49" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="21"/>
+      <c r="A49" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="19"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
@@ -5721,12 +5507,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" customFormat="1" ht="21" customHeight="1">
-      <c r="A1" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="A1" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
       <c r="E1" s="7"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5749,12 +5535,12 @@
       <c r="X1" s="2"/>
     </row>
     <row r="2" spans="1:24" customFormat="1" ht="24.65" customHeight="1">
-      <c r="A2" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
+      <c r="A2" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
       <c r="E2" s="7"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -5777,10 +5563,10 @@
       <c r="X2" s="2"/>
     </row>
     <row r="3" spans="1:24" customFormat="1">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="7"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -5803,8 +5589,8 @@
       <c r="X3" s="2"/>
     </row>
     <row r="4" spans="1:24" customFormat="1" ht="18">
-      <c r="A4" s="17" t="s">
-        <v>90</v>
+      <c r="A4" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -5831,12 +5617,12 @@
       <c r="X4" s="2"/>
     </row>
     <row r="5" spans="1:24" customFormat="1" ht="58" customHeight="1">
-      <c r="A5" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
+      <c r="A5" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="7"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -5859,12 +5645,12 @@
       <c r="X5" s="2"/>
     </row>
     <row r="6" spans="1:24" customFormat="1" ht="28" customHeight="1">
-      <c r="A6" s="78" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
+      <c r="A6" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
       <c r="E6" s="7"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -5887,8 +5673,8 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:24" customFormat="1">
-      <c r="A7" s="38" t="s">
-        <v>93</v>
+      <c r="A7" s="36" t="s">
+        <v>85</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -5915,8 +5701,8 @@
       <c r="X7" s="2"/>
     </row>
     <row r="8" spans="1:24" customFormat="1">
-      <c r="A8" s="38" t="s">
-        <v>94</v>
+      <c r="A8" s="36" t="s">
+        <v>86</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -5943,8 +5729,8 @@
       <c r="X8" s="2"/>
     </row>
     <row r="9" spans="1:24" customFormat="1">
-      <c r="A9" s="38" t="s">
-        <v>95</v>
+      <c r="A9" s="36" t="s">
+        <v>87</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -5971,8 +5757,8 @@
       <c r="X9" s="2"/>
     </row>
     <row r="10" spans="1:24" customFormat="1" ht="24.65" customHeight="1">
-      <c r="A10" s="26" t="s">
-        <v>39</v>
+      <c r="A10" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -5999,12 +5785,12 @@
       <c r="X10" s="2"/>
     </row>
     <row r="11" spans="1:24" customFormat="1" ht="41.4" customHeight="1">
-      <c r="A11" s="73" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
+      <c r="A11" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
       <c r="E11" s="7"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -6027,8 +5813,8 @@
       <c r="X11" s="2"/>
     </row>
     <row r="12" spans="1:24" customFormat="1" ht="21.65" customHeight="1">
-      <c r="A12" s="26" t="s">
-        <v>46</v>
+      <c r="A12" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -6055,12 +5841,12 @@
       <c r="X12" s="2"/>
     </row>
     <row r="13" spans="1:24" customFormat="1" ht="47.15" customHeight="1">
-      <c r="A13" s="73" t="s">
-        <v>179</v>
-      </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
+      <c r="A13" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
       <c r="E13" s="7"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -6083,11 +5869,11 @@
       <c r="X13" s="2"/>
     </row>
     <row r="15" spans="1:24" customFormat="1">
-      <c r="A15" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>48</v>
+      <c r="A15" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>41</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -6113,10 +5899,10 @@
       <c r="X15" s="2"/>
     </row>
     <row r="16" spans="1:24" customFormat="1">
-      <c r="A16" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="21"/>
+      <c r="A16" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="19"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -6142,7 +5928,7 @@
     </row>
     <row r="17" spans="1:24" customFormat="1" ht="29.15" customHeight="1">
       <c r="A17" s="74" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B17" s="74"/>
       <c r="C17" s="74"/>
@@ -6169,8 +5955,8 @@
       <c r="X17" s="2"/>
     </row>
     <row r="18" spans="1:24" customFormat="1">
-      <c r="A18" s="38" t="s">
-        <v>98</v>
+      <c r="A18" s="36" t="s">
+        <v>90</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -6197,8 +5983,8 @@
       <c r="X18" s="2"/>
     </row>
     <row r="19" spans="1:24" customFormat="1">
-      <c r="A19" s="38" t="s">
-        <v>99</v>
+      <c r="A19" s="36" t="s">
+        <v>91</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -6225,8 +6011,8 @@
       <c r="X19" s="2"/>
     </row>
     <row r="20" spans="1:24" customFormat="1">
-      <c r="A20" s="38" t="s">
-        <v>100</v>
+      <c r="A20" s="36" t="s">
+        <v>92</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -6253,8 +6039,8 @@
       <c r="X20" s="2"/>
     </row>
     <row r="21" spans="1:24" customFormat="1">
-      <c r="A21" s="38" t="s">
-        <v>101</v>
+      <c r="A21" s="36" t="s">
+        <v>93</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -6281,8 +6067,8 @@
       <c r="X21" s="2"/>
     </row>
     <row r="22" spans="1:24" customFormat="1">
-      <c r="A22" s="38" t="s">
-        <v>102</v>
+      <c r="A22" s="36" t="s">
+        <v>94</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -6309,8 +6095,8 @@
       <c r="X22" s="2"/>
     </row>
     <row r="23" spans="1:24" customFormat="1">
-      <c r="A23" s="38" t="s">
-        <v>103</v>
+      <c r="A23" s="36" t="s">
+        <v>95</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -6337,8 +6123,8 @@
       <c r="X23" s="2"/>
     </row>
     <row r="24" spans="1:24" customFormat="1" ht="24.65" customHeight="1">
-      <c r="A24" s="26" t="s">
-        <v>39</v>
+      <c r="A24" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -6365,10 +6151,10 @@
       <c r="X24" s="2"/>
     </row>
     <row r="25" spans="1:24" customFormat="1" ht="42.9" customHeight="1">
-      <c r="A25" s="66"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
+      <c r="A25" s="64"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
       <c r="E25" s="7"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -6391,8 +6177,8 @@
       <c r="X25" s="2"/>
     </row>
     <row r="26" spans="1:24" customFormat="1" ht="23.5" customHeight="1">
-      <c r="A26" s="26" t="s">
-        <v>46</v>
+      <c r="A26" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -6419,10 +6205,10 @@
       <c r="X26" s="2"/>
     </row>
     <row r="27" spans="1:24" customFormat="1" ht="47.15" customHeight="1">
-      <c r="A27" s="66"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
+      <c r="A27" s="64"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
       <c r="E27" s="7"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -6445,11 +6231,11 @@
       <c r="X27" s="2"/>
     </row>
     <row r="29" spans="1:24" customFormat="1">
-      <c r="A29" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>48</v>
+      <c r="A29" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>41</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -6475,10 +6261,10 @@
       <c r="X29" s="2"/>
     </row>
     <row r="30" spans="1:24" customFormat="1">
-      <c r="A30" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="21"/>
+      <c r="A30" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="19"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -6504,7 +6290,7 @@
     </row>
     <row r="31" spans="1:24" customFormat="1" ht="28" customHeight="1">
       <c r="A31" s="75" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B31" s="75"/>
       <c r="C31" s="75"/>
@@ -6531,8 +6317,8 @@
       <c r="X31" s="2"/>
     </row>
     <row r="32" spans="1:24" customFormat="1">
-      <c r="A32" s="38" t="s">
-        <v>105</v>
+      <c r="A32" s="36" t="s">
+        <v>97</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -6559,8 +6345,8 @@
       <c r="X32" s="2"/>
     </row>
     <row r="33" spans="1:24" customFormat="1">
-      <c r="A33" s="34" t="s">
-        <v>106</v>
+      <c r="A33" s="32" t="s">
+        <v>98</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -6587,8 +6373,8 @@
       <c r="X33" s="2"/>
     </row>
     <row r="34" spans="1:24" customFormat="1">
-      <c r="A34" s="38" t="s">
-        <v>107</v>
+      <c r="A34" s="36" t="s">
+        <v>99</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -6615,8 +6401,8 @@
       <c r="X34" s="2"/>
     </row>
     <row r="35" spans="1:24" customFormat="1">
-      <c r="A35" s="38" t="s">
-        <v>108</v>
+      <c r="A35" s="36" t="s">
+        <v>100</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -6643,8 +6429,8 @@
       <c r="X35" s="2"/>
     </row>
     <row r="36" spans="1:24" customFormat="1" ht="23.5" customHeight="1">
-      <c r="A36" s="26" t="s">
-        <v>39</v>
+      <c r="A36" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -6671,12 +6457,12 @@
       <c r="X36" s="2"/>
     </row>
     <row r="37" spans="1:24" customFormat="1" ht="47.15" customHeight="1">
-      <c r="A37" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" s="73"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
+      <c r="A37" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
       <c r="E37" s="7"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -6699,8 +6485,8 @@
       <c r="X37" s="2"/>
     </row>
     <row r="38" spans="1:24" customFormat="1" ht="20.5" customHeight="1">
-      <c r="A38" s="26" t="s">
-        <v>46</v>
+      <c r="A38" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -6728,7 +6514,7 @@
     </row>
     <row r="39" spans="1:24" customFormat="1" ht="47.15" customHeight="1">
       <c r="A39" s="76" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B39" s="76"/>
       <c r="C39" s="76"/>
@@ -6755,11 +6541,11 @@
       <c r="X39" s="2"/>
     </row>
     <row r="41" spans="1:24" customFormat="1">
-      <c r="A41" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>48</v>
+      <c r="A41" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="35" t="s">
+        <v>41</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -6785,10 +6571,10 @@
       <c r="X41" s="2"/>
     </row>
     <row r="42" spans="1:24" customFormat="1">
-      <c r="A42" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="21"/>
+      <c r="A42" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="19"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -6814,7 +6600,7 @@
     </row>
     <row r="43" spans="1:24" customFormat="1" ht="29.15" customHeight="1">
       <c r="A43" s="74" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B43" s="74"/>
       <c r="C43" s="74"/>
@@ -6841,8 +6627,8 @@
       <c r="X43" s="2"/>
     </row>
     <row r="44" spans="1:24" customFormat="1">
-      <c r="A44" s="38" t="s">
-        <v>112</v>
+      <c r="A44" s="36" t="s">
+        <v>104</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -6869,8 +6655,8 @@
       <c r="X44" s="2"/>
     </row>
     <row r="45" spans="1:24" customFormat="1">
-      <c r="A45" s="38" t="s">
-        <v>113</v>
+      <c r="A45" s="36" t="s">
+        <v>105</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -6897,8 +6683,8 @@
       <c r="X45" s="2"/>
     </row>
     <row r="46" spans="1:24" customFormat="1">
-      <c r="A46" s="38" t="s">
-        <v>114</v>
+      <c r="A46" s="36" t="s">
+        <v>106</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -6925,8 +6711,8 @@
       <c r="X46" s="2"/>
     </row>
     <row r="47" spans="1:24" customFormat="1">
-      <c r="A47" s="38" t="s">
-        <v>115</v>
+      <c r="A47" s="36" t="s">
+        <v>107</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -6953,8 +6739,8 @@
       <c r="X47" s="2"/>
     </row>
     <row r="48" spans="1:24" customFormat="1" ht="24.65" customHeight="1">
-      <c r="A48" s="26" t="s">
-        <v>39</v>
+      <c r="A48" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -6981,10 +6767,10 @@
       <c r="X48" s="2"/>
     </row>
     <row r="49" spans="1:24" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A49" s="66"/>
-      <c r="B49" s="66"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
+      <c r="A49" s="64"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
       <c r="E49" s="7"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -7007,8 +6793,8 @@
       <c r="X49" s="2"/>
     </row>
     <row r="50" spans="1:24" customFormat="1" ht="23.15" customHeight="1">
-      <c r="A50" s="26" t="s">
-        <v>46</v>
+      <c r="A50" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -7035,10 +6821,10 @@
       <c r="X50" s="2"/>
     </row>
     <row r="51" spans="1:24" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A51" s="66"/>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="66"/>
+      <c r="A51" s="64"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
       <c r="E51" s="7"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -7061,11 +6847,11 @@
       <c r="X51" s="2"/>
     </row>
     <row r="53" spans="1:24" customFormat="1">
-      <c r="A53" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B53" s="37" t="s">
-        <v>48</v>
+      <c r="A53" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="35" t="s">
+        <v>41</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -7091,10 +6877,10 @@
       <c r="X53" s="2"/>
     </row>
     <row r="54" spans="1:24" customFormat="1">
-      <c r="A54" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B54" s="21"/>
+      <c r="A54" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="19"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
@@ -7120,12 +6906,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="A49:D49"/>
     <mergeCell ref="A51:D51"/>
@@ -7135,6 +6915,12 @@
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <conditionalFormatting sqref="B15 B29 B41 B53">
     <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
@@ -7175,12 +6961,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:77" customFormat="1" ht="24.65" customHeight="1">
-      <c r="A1" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="A1" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
       <c r="E1" s="7"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -7256,12 +7042,12 @@
       <c r="BY1" s="2"/>
     </row>
     <row r="2" spans="1:77" customFormat="1" ht="25" customHeight="1">
-      <c r="A2" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
+      <c r="A2" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
       <c r="E2" s="7"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -7337,10 +7123,10 @@
       <c r="BY2" s="2"/>
     </row>
     <row r="3" spans="1:77" customFormat="1">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="7"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -7416,8 +7202,8 @@
       <c r="BY3" s="2"/>
     </row>
     <row r="4" spans="1:77" customFormat="1" ht="18">
-      <c r="A4" s="17" t="s">
-        <v>117</v>
+      <c r="A4" s="15" t="s">
+        <v>109</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -7497,12 +7283,12 @@
       <c r="BY4" s="2"/>
     </row>
     <row r="5" spans="1:77" customFormat="1" ht="44.4" customHeight="1">
-      <c r="A5" s="80" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
+      <c r="A5" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
       <c r="E5" s="7"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -7579,7 +7365,7 @@
     </row>
     <row r="6" spans="1:77" customFormat="1" ht="26.15" customHeight="1">
       <c r="A6" s="75" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B6" s="75"/>
       <c r="C6" s="75"/>
@@ -7659,8 +7445,8 @@
       <c r="BY6" s="2"/>
     </row>
     <row r="7" spans="1:77" customFormat="1">
-      <c r="A7" s="46" t="s">
-        <v>120</v>
+      <c r="A7" s="44" t="s">
+        <v>112</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -7740,8 +7526,8 @@
       <c r="BY7" s="2"/>
     </row>
     <row r="8" spans="1:77" customFormat="1">
-      <c r="A8" s="38" t="s">
-        <v>121</v>
+      <c r="A8" s="36" t="s">
+        <v>113</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -7821,8 +7607,8 @@
       <c r="BY8" s="2"/>
     </row>
     <row r="9" spans="1:77" customFormat="1">
-      <c r="A9" s="38" t="s">
-        <v>122</v>
+      <c r="A9" s="36" t="s">
+        <v>114</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -7902,8 +7688,8 @@
       <c r="BY9" s="2"/>
     </row>
     <row r="10" spans="1:77" customFormat="1">
-      <c r="A10" s="38" t="s">
-        <v>123</v>
+      <c r="A10" s="36" t="s">
+        <v>115</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -7983,8 +7769,8 @@
       <c r="BY10" s="2"/>
     </row>
     <row r="11" spans="1:77" customFormat="1" ht="26.15" customHeight="1">
-      <c r="A11" s="26" t="s">
-        <v>39</v>
+      <c r="A11" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -8064,10 +7850,10 @@
       <c r="BY11" s="2"/>
     </row>
     <row r="12" spans="1:77" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A12" s="66"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
       <c r="E12" s="7"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -8143,8 +7929,8 @@
       <c r="BY12" s="2"/>
     </row>
     <row r="13" spans="1:77" customFormat="1" ht="23.15" customHeight="1">
-      <c r="A13" s="26" t="s">
-        <v>46</v>
+      <c r="A13" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -8224,10 +8010,10 @@
       <c r="BY13" s="2"/>
     </row>
     <row r="14" spans="1:77" customFormat="1" ht="47.4" customHeight="1">
-      <c r="A14" s="66"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
       <c r="E14" s="7"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -8303,11 +8089,11 @@
       <c r="BY14" s="2"/>
     </row>
     <row r="16" spans="1:77" customFormat="1">
-      <c r="A16" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>48</v>
+      <c r="A16" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>41</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -8386,10 +8172,10 @@
       <c r="BY16" s="2"/>
     </row>
     <row r="17" spans="1:77" customFormat="1">
-      <c r="A17" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="21"/>
+      <c r="A17" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="19"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -8467,12 +8253,12 @@
       <c r="BY17" s="2"/>
     </row>
     <row r="18" spans="1:77" customFormat="1" ht="32.15" customHeight="1">
-      <c r="A18" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
+      <c r="A18" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
       <c r="E18" s="7"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -8548,12 +8334,12 @@
       <c r="BY18" s="2"/>
     </row>
     <row r="19" spans="1:77" customFormat="1">
-      <c r="A19" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
+      <c r="A19" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
       <c r="E19" s="7"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -8629,12 +8415,12 @@
       <c r="BY19" s="2"/>
     </row>
     <row r="20" spans="1:77" customFormat="1">
-      <c r="A20" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
+      <c r="A20" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
       <c r="E20" s="7"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -8710,12 +8496,12 @@
       <c r="BY20" s="2"/>
     </row>
     <row r="21" spans="1:77" customFormat="1">
-      <c r="A21" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
+      <c r="A21" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
       <c r="E21" s="7"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -8791,8 +8577,8 @@
       <c r="BY21" s="2"/>
     </row>
     <row r="22" spans="1:77" customFormat="1" ht="20.5" customHeight="1">
-      <c r="A22" s="26" t="s">
-        <v>39</v>
+      <c r="A22" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -8872,12 +8658,12 @@
       <c r="BY22" s="2"/>
     </row>
     <row r="23" spans="1:77" customFormat="1" ht="42" customHeight="1">
-      <c r="A23" s="79" t="s">
-        <v>128</v>
-      </c>
-      <c r="B23" s="79"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
+      <c r="A23" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
       <c r="E23" s="7"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -8953,8 +8739,8 @@
       <c r="BY23" s="2"/>
     </row>
     <row r="25" spans="1:77" customFormat="1" ht="25" customHeight="1">
-      <c r="A25" s="26" t="s">
-        <v>46</v>
+      <c r="A25" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -9034,12 +8820,12 @@
       <c r="BY25" s="2"/>
     </row>
     <row r="26" spans="1:77" customFormat="1" ht="47.15" customHeight="1">
-      <c r="A26" s="72" t="s">
-        <v>180</v>
-      </c>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
+      <c r="A26" s="70" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
       <c r="E26" s="7"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -9194,11 +8980,11 @@
       <c r="BY27" s="2"/>
     </row>
     <row r="28" spans="1:77" customFormat="1" ht="14.5" customHeight="1">
-      <c r="A28" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>48</v>
+      <c r="A28" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>41</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -9277,10 +9063,10 @@
       <c r="BY28" s="2"/>
     </row>
     <row r="29" spans="1:77" customFormat="1">
-      <c r="A29" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="21"/>
+      <c r="A29" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="19"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -9359,7 +9145,7 @@
     </row>
     <row r="31" spans="1:77" customFormat="1" ht="24" customHeight="1">
       <c r="A31" s="75" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B31" s="75"/>
       <c r="C31" s="75"/>
@@ -9439,8 +9225,8 @@
       <c r="BY31" s="2"/>
     </row>
     <row r="32" spans="1:77" customFormat="1">
-      <c r="A32" s="38" t="s">
-        <v>130</v>
+      <c r="A32" s="36" t="s">
+        <v>122</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -9520,8 +9306,8 @@
       <c r="BY32" s="2"/>
     </row>
     <row r="33" spans="1:77" customFormat="1">
-      <c r="A33" s="38" t="s">
-        <v>131</v>
+      <c r="A33" s="36" t="s">
+        <v>123</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -9601,8 +9387,8 @@
       <c r="BY33" s="2"/>
     </row>
     <row r="34" spans="1:77" customFormat="1">
-      <c r="A34" s="38" t="s">
-        <v>132</v>
+      <c r="A34" s="36" t="s">
+        <v>124</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -9682,8 +9468,8 @@
       <c r="BY34" s="2"/>
     </row>
     <row r="35" spans="1:77" customFormat="1">
-      <c r="A35" s="38" t="s">
-        <v>133</v>
+      <c r="A35" s="36" t="s">
+        <v>125</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -9763,8 +9549,8 @@
       <c r="BY35" s="2"/>
     </row>
     <row r="36" spans="1:77" customFormat="1" ht="21.65" customHeight="1">
-      <c r="A36" s="26" t="s">
-        <v>39</v>
+      <c r="A36" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -9844,12 +9630,12 @@
       <c r="BY36" s="2"/>
     </row>
     <row r="37" spans="1:77" customFormat="1" ht="45.9" customHeight="1">
-      <c r="A37" s="73" t="s">
-        <v>181</v>
-      </c>
-      <c r="B37" s="73"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
+      <c r="A37" s="71" t="s">
+        <v>173</v>
+      </c>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
       <c r="E37" s="7"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -9925,8 +9711,8 @@
       <c r="BY37" s="2"/>
     </row>
     <row r="39" spans="1:77" customFormat="1" ht="25" customHeight="1">
-      <c r="A39" s="26" t="s">
-        <v>46</v>
+      <c r="A39" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -10006,12 +9792,12 @@
       <c r="BY39" s="2"/>
     </row>
     <row r="40" spans="1:77" customFormat="1" ht="48.65" customHeight="1">
-      <c r="A40" s="73" t="s">
-        <v>134</v>
-      </c>
-      <c r="B40" s="73"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
+      <c r="A40" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="71"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="71"/>
       <c r="E40" s="7"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -10087,11 +9873,11 @@
       <c r="BY40" s="2"/>
     </row>
     <row r="42" spans="1:77" customFormat="1">
-      <c r="A42" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>48</v>
+      <c r="A42" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>41</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -10170,10 +9956,10 @@
       <c r="BY42" s="2"/>
     </row>
     <row r="43" spans="1:77" customFormat="1">
-      <c r="A43" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="21"/>
+      <c r="A43" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="19"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -10252,7 +10038,7 @@
     </row>
     <row r="44" spans="1:77" customFormat="1" ht="26.15" customHeight="1">
       <c r="A44" s="75" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B44" s="75"/>
       <c r="C44" s="75"/>
@@ -10332,10 +10118,10 @@
       <c r="BY44" s="2"/>
     </row>
     <row r="45" spans="1:77" customFormat="1">
-      <c r="A45" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="B45" s="15"/>
+      <c r="A45" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" s="13"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -10413,10 +10199,10 @@
       <c r="BY45" s="2"/>
     </row>
     <row r="46" spans="1:77" customFormat="1">
-      <c r="A46" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="B46" s="15"/>
+      <c r="A46" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" s="13"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -10494,8 +10280,8 @@
       <c r="BY46" s="2"/>
     </row>
     <row r="47" spans="1:77" customFormat="1" ht="25" customHeight="1">
-      <c r="A47" s="26" t="s">
-        <v>39</v>
+      <c r="A47" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -10575,12 +10361,12 @@
       <c r="BY47" s="2"/>
     </row>
     <row r="48" spans="1:77" customFormat="1" ht="38.4" customHeight="1">
-      <c r="A48" s="73" t="s">
-        <v>138</v>
-      </c>
-      <c r="B48" s="73"/>
-      <c r="C48" s="73"/>
-      <c r="D48" s="73"/>
+      <c r="A48" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" s="71"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="71"/>
       <c r="E48" s="7"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -10656,8 +10442,8 @@
       <c r="BY48" s="2"/>
     </row>
     <row r="49" spans="1:77" customFormat="1" ht="23.15" customHeight="1">
-      <c r="A49" s="26" t="s">
-        <v>46</v>
+      <c r="A49" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -10738,7 +10524,7 @@
     </row>
     <row r="50" spans="1:77" customFormat="1" ht="41.15" customHeight="1">
       <c r="A50" s="76" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B50" s="76"/>
       <c r="C50" s="76"/>
@@ -10818,11 +10604,11 @@
       <c r="BY50" s="2"/>
     </row>
     <row r="52" spans="1:77" customFormat="1">
-      <c r="A52" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52" s="37" t="s">
-        <v>48</v>
+      <c r="A52" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="35" t="s">
+        <v>41</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -10901,10 +10687,10 @@
       <c r="BY52" s="2"/>
     </row>
     <row r="53" spans="1:77" customFormat="1">
-      <c r="A53" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B53" s="21"/>
+      <c r="A53" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="19"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
@@ -10983,12 +10769,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="A50:D50"/>
     <mergeCell ref="A23:D23"/>
@@ -10997,6 +10777,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A12:D12"/>
   </mergeCells>
   <conditionalFormatting sqref="B16 B28 B42 B52">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
@@ -11034,28 +10820,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="2" width="60.6328125" style="50" customWidth="1"/>
-    <col min="3" max="4" width="11.54296875" style="50" customWidth="1"/>
-    <col min="5" max="5" width="8.54296875" style="50" customWidth="1"/>
-    <col min="6" max="16384" width="8.54296875" style="50"/>
+    <col min="1" max="2" width="60.6328125" style="48" customWidth="1"/>
+    <col min="3" max="4" width="11.54296875" style="48" customWidth="1"/>
+    <col min="5" max="5" width="8.54296875" style="48" customWidth="1"/>
+    <col min="6" max="16384" width="8.54296875" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="44" customFormat="1" ht="36.9" customHeight="1">
-      <c r="A1" s="82" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
+    <row r="1" spans="1:61" s="42" customFormat="1" ht="36.9" customHeight="1">
+      <c r="A1" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
     </row>
     <row r="2" spans="1:61" customFormat="1" ht="18">
-      <c r="A2" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="A2" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -11113,22 +10899,22 @@
       <c r="BH2" s="2"/>
       <c r="BI2" s="2"/>
     </row>
-    <row r="3" spans="1:61" s="52" customFormat="1" ht="30.65" customHeight="1">
-      <c r="A3" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
+    <row r="3" spans="1:61" s="50" customFormat="1" ht="30.65" customHeight="1">
+      <c r="A3" s="81" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
     </row>
     <row r="4" spans="1:61" customFormat="1" ht="27" customHeight="1">
-      <c r="A4" s="84" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="50"/>
+      <c r="A4" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -11187,13 +10973,13 @@
       <c r="BI4" s="2"/>
     </row>
     <row r="5" spans="1:61" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="50"/>
+      <c r="A5" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="48"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -11252,13 +11038,13 @@
       <c r="BI5" s="2"/>
     </row>
     <row r="6" spans="1:61" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="50"/>
+      <c r="A6" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -11317,13 +11103,13 @@
       <c r="BI6" s="2"/>
     </row>
     <row r="7" spans="1:61" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="50"/>
+      <c r="A7" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -11382,13 +11168,13 @@
       <c r="BI7" s="2"/>
     </row>
     <row r="8" spans="1:61" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="50"/>
+      <c r="A8" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -11447,13 +11233,13 @@
       <c r="BI8" s="2"/>
     </row>
     <row r="9" spans="1:61" customFormat="1" ht="27" customHeight="1">
-      <c r="A9" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="50"/>
+      <c r="A9" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -11512,11 +11298,11 @@
       <c r="BI9" s="2"/>
     </row>
     <row r="10" spans="1:61" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A10" s="66"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="50"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="48"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -11575,13 +11361,13 @@
       <c r="BI10" s="2"/>
     </row>
     <row r="11" spans="1:61" customFormat="1" ht="27.65" customHeight="1">
-      <c r="A11" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="50"/>
+      <c r="A11" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="48"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -11640,11 +11426,11 @@
       <c r="BI11" s="2"/>
     </row>
     <row r="12" spans="1:61" customFormat="1" ht="40.25" customHeight="1">
-      <c r="A12" s="66"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="50"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="48"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -11703,13 +11489,13 @@
       <c r="BI12" s="2"/>
     </row>
     <row r="13" spans="1:61" customFormat="1" ht="42.65" customHeight="1">
-      <c r="A13" s="81" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="50"/>
+      <c r="A13" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="48"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -11767,70 +11553,70 @@
       <c r="BH13" s="2"/>
       <c r="BI13" s="2"/>
     </row>
-    <row r="14" spans="1:61" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-    </row>
-    <row r="15" spans="1:61" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-    </row>
-    <row r="16" spans="1:61" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-    </row>
-    <row r="17" spans="1:61" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-    </row>
-    <row r="18" spans="1:61" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-    </row>
-    <row r="19" spans="1:61" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A19" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-    </row>
-    <row r="20" spans="1:61" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
+    <row r="14" spans="1:61" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+    </row>
+    <row r="15" spans="1:61" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+    </row>
+    <row r="16" spans="1:61" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+    </row>
+    <row r="17" spans="1:61" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18" spans="1:61" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+    </row>
+    <row r="19" spans="1:61" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="A19" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+    </row>
+    <row r="20" spans="1:61" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
     </row>
     <row r="21" spans="1:61" customFormat="1" ht="27" customHeight="1">
-      <c r="A21" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="50"/>
+      <c r="A21" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="48"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -11889,11 +11675,11 @@
       <c r="BI21" s="2"/>
     </row>
     <row r="22" spans="1:61" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A22" s="66"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="50"/>
+      <c r="A22" s="64"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="48"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -11952,13 +11738,13 @@
       <c r="BI22" s="2"/>
     </row>
     <row r="23" spans="1:61" customFormat="1" ht="29.15" customHeight="1">
-      <c r="A23" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="50"/>
+      <c r="A23" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="48"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -12017,11 +11803,11 @@
       <c r="BI23" s="2"/>
     </row>
     <row r="24" spans="1:61" customFormat="1" ht="40.25" customHeight="1">
-      <c r="A24" s="66"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="50"/>
+      <c r="A24" s="64"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="48"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -12080,13 +11866,13 @@
       <c r="BI24" s="2"/>
     </row>
     <row r="25" spans="1:61" customFormat="1" ht="42.65" customHeight="1">
-      <c r="A25" s="81" t="s">
-        <v>155</v>
-      </c>
-      <c r="B25" s="81"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="50"/>
+      <c r="A25" s="79" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="48"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -12145,13 +11931,13 @@
       <c r="BI25" s="2"/>
     </row>
     <row r="26" spans="1:61" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="50"/>
+      <c r="A26" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="48"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -12210,13 +11996,13 @@
       <c r="BI26" s="2"/>
     </row>
     <row r="27" spans="1:61" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="50"/>
+      <c r="A27" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="48"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -12275,13 +12061,13 @@
       <c r="BI27" s="2"/>
     </row>
     <row r="28" spans="1:61" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="50"/>
+      <c r="A28" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="48"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -12340,13 +12126,13 @@
       <c r="BI28" s="2"/>
     </row>
     <row r="29" spans="1:61" customFormat="1" ht="27" customHeight="1">
-      <c r="A29" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="50"/>
+      <c r="A29" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="48"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -12405,11 +12191,11 @@
       <c r="BI29" s="2"/>
     </row>
     <row r="30" spans="1:61" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A30" s="66"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="50"/>
+      <c r="A30" s="64"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="48"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -12467,77 +12253,77 @@
       <c r="BH30" s="2"/>
       <c r="BI30" s="2"/>
     </row>
-    <row r="31" spans="1:61" s="59" customFormat="1" ht="24" customHeight="1">
-      <c r="A31" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="13"/>
-      <c r="Z31" s="13"/>
-      <c r="AA31" s="13"/>
-      <c r="AB31" s="13"/>
-      <c r="AC31" s="13"/>
-      <c r="AD31" s="13"/>
-      <c r="AE31" s="13"/>
-      <c r="AF31" s="13"/>
-      <c r="AG31" s="13"/>
-      <c r="AH31" s="13"/>
-      <c r="AI31" s="13"/>
-      <c r="AJ31" s="13"/>
-      <c r="AK31" s="13"/>
-      <c r="AL31" s="13"/>
-      <c r="AM31" s="13"/>
-      <c r="AN31" s="13"/>
-      <c r="AO31" s="13"/>
-      <c r="AP31" s="13"/>
-      <c r="AQ31" s="13"/>
-      <c r="AR31" s="13"/>
-      <c r="AS31" s="13"/>
-      <c r="AT31" s="13"/>
-      <c r="AU31" s="13"/>
-      <c r="AV31" s="13"/>
-      <c r="AW31" s="13"/>
-      <c r="AX31" s="13"/>
-      <c r="AY31" s="13"/>
-      <c r="AZ31" s="13"/>
-      <c r="BA31" s="13"/>
-      <c r="BB31" s="13"/>
-      <c r="BC31" s="13"/>
-      <c r="BD31" s="13"/>
-      <c r="BE31" s="13"/>
-      <c r="BF31" s="13"/>
-      <c r="BG31" s="13"/>
-      <c r="BH31" s="13"/>
-      <c r="BI31" s="13"/>
+    <row r="31" spans="1:61" s="57" customFormat="1" ht="24" customHeight="1">
+      <c r="A31" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="11"/>
+      <c r="AI31" s="11"/>
+      <c r="AJ31" s="11"/>
+      <c r="AK31" s="11"/>
+      <c r="AL31" s="11"/>
+      <c r="AM31" s="11"/>
+      <c r="AN31" s="11"/>
+      <c r="AO31" s="11"/>
+      <c r="AP31" s="11"/>
+      <c r="AQ31" s="11"/>
+      <c r="AR31" s="11"/>
+      <c r="AS31" s="11"/>
+      <c r="AT31" s="11"/>
+      <c r="AU31" s="11"/>
+      <c r="AV31" s="11"/>
+      <c r="AW31" s="11"/>
+      <c r="AX31" s="11"/>
+      <c r="AY31" s="11"/>
+      <c r="AZ31" s="11"/>
+      <c r="BA31" s="11"/>
+      <c r="BB31" s="11"/>
+      <c r="BC31" s="11"/>
+      <c r="BD31" s="11"/>
+      <c r="BE31" s="11"/>
+      <c r="BF31" s="11"/>
+      <c r="BG31" s="11"/>
+      <c r="BH31" s="11"/>
+      <c r="BI31" s="11"/>
     </row>
     <row r="32" spans="1:61" customFormat="1" ht="40.25" customHeight="1">
-      <c r="A32" s="66"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="50"/>
+      <c r="A32" s="64"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="48"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -12596,13 +12382,13 @@
       <c r="BI32" s="2"/>
     </row>
     <row r="33" spans="1:61" customFormat="1" ht="48.65" customHeight="1">
-      <c r="A33" s="81" t="s">
-        <v>159</v>
-      </c>
-      <c r="B33" s="81"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="50"/>
+      <c r="A33" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="48"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -12661,13 +12447,13 @@
       <c r="BI33" s="2"/>
     </row>
     <row r="34" spans="1:61" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="50"/>
+      <c r="A34" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="48"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -12726,13 +12512,13 @@
       <c r="BI34" s="2"/>
     </row>
     <row r="35" spans="1:61" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="60" t="s">
-        <v>161</v>
-      </c>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="50"/>
+      <c r="A35" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="48"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -12791,13 +12577,13 @@
       <c r="BI35" s="2"/>
     </row>
     <row r="36" spans="1:61" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="50"/>
+      <c r="A36" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="48"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -12856,13 +12642,13 @@
       <c r="BI36" s="2"/>
     </row>
     <row r="37" spans="1:61" customFormat="1" ht="15" customHeight="1">
-      <c r="A37" s="60" t="s">
-        <v>163</v>
-      </c>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="50"/>
+      <c r="A37" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="48"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -12921,13 +12707,13 @@
       <c r="BI37" s="2"/>
     </row>
     <row r="38" spans="1:61" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="50"/>
+      <c r="A38" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="48"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -12986,13 +12772,13 @@
       <c r="BI38" s="2"/>
     </row>
     <row r="39" spans="1:61" customFormat="1" ht="15" customHeight="1">
-      <c r="A39" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="50"/>
+      <c r="A39" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="48"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -13051,13 +12837,13 @@
       <c r="BI39" s="2"/>
     </row>
     <row r="40" spans="1:61" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="50"/>
+      <c r="A40" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="48"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -13116,13 +12902,13 @@
       <c r="BI40" s="2"/>
     </row>
     <row r="41" spans="1:61" customFormat="1" ht="27.65" customHeight="1">
-      <c r="A41" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="50"/>
+      <c r="A41" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="48"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -13181,11 +12967,11 @@
       <c r="BI41" s="2"/>
     </row>
     <row r="42" spans="1:61" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A42" s="66"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="50"/>
+      <c r="A42" s="64"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="48"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -13244,13 +13030,13 @@
       <c r="BI42" s="2"/>
     </row>
     <row r="43" spans="1:61" customFormat="1" ht="20.5" customHeight="1">
-      <c r="A43" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="50"/>
+      <c r="A43" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="48"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -13309,11 +13095,11 @@
       <c r="BI43" s="2"/>
     </row>
     <row r="44" spans="1:61" customFormat="1" ht="40.25" customHeight="1">
-      <c r="A44" s="66"/>
-      <c r="B44" s="66"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="50"/>
+      <c r="A44" s="64"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="48"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -13372,13 +13158,13 @@
       <c r="BI44" s="2"/>
     </row>
     <row r="45" spans="1:61" customFormat="1" ht="48.65" customHeight="1">
-      <c r="A45" s="81" t="s">
-        <v>167</v>
-      </c>
-      <c r="B45" s="81"/>
-      <c r="C45" s="81"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="50"/>
+      <c r="A45" s="79" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" s="79"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="48"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -13437,13 +13223,13 @@
       <c r="BI45" s="2"/>
     </row>
     <row r="46" spans="1:61" customFormat="1" ht="15" customHeight="1">
-      <c r="A46" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="B46" s="53"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="50"/>
+      <c r="A46" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" s="51"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="48"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -13501,22 +13287,22 @@
       <c r="BH46" s="2"/>
       <c r="BI46" s="2"/>
     </row>
-    <row r="47" spans="1:61" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A47" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="B47" s="53"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
+    <row r="47" spans="1:61" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="A47" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
     </row>
     <row r="48" spans="1:61" customFormat="1" ht="15" customHeight="1">
-      <c r="A48" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="B48" s="53"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="50"/>
+      <c r="A48" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48" s="51"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="48"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -13575,13 +13361,13 @@
       <c r="BI48" s="2"/>
     </row>
     <row r="49" spans="1:61" customFormat="1" ht="15" customHeight="1">
-      <c r="A49" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="B49" s="53"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="50"/>
+      <c r="A49" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" s="51"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="48"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -13640,13 +13426,13 @@
       <c r="BI49" s="2"/>
     </row>
     <row r="50" spans="1:61" customFormat="1" ht="15" customHeight="1">
-      <c r="A50" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="B50" s="53"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="50"/>
+      <c r="A50" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" s="51"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="48"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -13705,13 +13491,13 @@
       <c r="BI50" s="2"/>
     </row>
     <row r="51" spans="1:61" customFormat="1" ht="27.65" customHeight="1">
-      <c r="A51" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="B51" s="55"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="50"/>
+      <c r="A51" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="48"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -13770,11 +13556,11 @@
       <c r="BI51" s="2"/>
     </row>
     <row r="52" spans="1:61" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A52" s="66"/>
-      <c r="B52" s="66"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="50"/>
+      <c r="A52" s="64"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="48"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -13832,77 +13618,77 @@
       <c r="BH52" s="2"/>
       <c r="BI52" s="2"/>
     </row>
-    <row r="53" spans="1:61" s="59" customFormat="1" ht="20.5" customHeight="1">
-      <c r="A53" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="B53" s="57"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="13"/>
-      <c r="P53" s="13"/>
-      <c r="Q53" s="13"/>
-      <c r="R53" s="13"/>
-      <c r="S53" s="13"/>
-      <c r="T53" s="13"/>
-      <c r="U53" s="13"/>
-      <c r="V53" s="13"/>
-      <c r="W53" s="13"/>
-      <c r="X53" s="13"/>
-      <c r="Y53" s="13"/>
-      <c r="Z53" s="13"/>
-      <c r="AA53" s="13"/>
-      <c r="AB53" s="13"/>
-      <c r="AC53" s="13"/>
-      <c r="AD53" s="13"/>
-      <c r="AE53" s="13"/>
-      <c r="AF53" s="13"/>
-      <c r="AG53" s="13"/>
-      <c r="AH53" s="13"/>
-      <c r="AI53" s="13"/>
-      <c r="AJ53" s="13"/>
-      <c r="AK53" s="13"/>
-      <c r="AL53" s="13"/>
-      <c r="AM53" s="13"/>
-      <c r="AN53" s="13"/>
-      <c r="AO53" s="13"/>
-      <c r="AP53" s="13"/>
-      <c r="AQ53" s="13"/>
-      <c r="AR53" s="13"/>
-      <c r="AS53" s="13"/>
-      <c r="AT53" s="13"/>
-      <c r="AU53" s="13"/>
-      <c r="AV53" s="13"/>
-      <c r="AW53" s="13"/>
-      <c r="AX53" s="13"/>
-      <c r="AY53" s="13"/>
-      <c r="AZ53" s="13"/>
-      <c r="BA53" s="13"/>
-      <c r="BB53" s="13"/>
-      <c r="BC53" s="13"/>
-      <c r="BD53" s="13"/>
-      <c r="BE53" s="13"/>
-      <c r="BF53" s="13"/>
-      <c r="BG53" s="13"/>
-      <c r="BH53" s="13"/>
-      <c r="BI53" s="13"/>
+    <row r="53" spans="1:61" s="57" customFormat="1" ht="20.5" customHeight="1">
+      <c r="A53" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="55"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
+      <c r="W53" s="11"/>
+      <c r="X53" s="11"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
+      <c r="AA53" s="11"/>
+      <c r="AB53" s="11"/>
+      <c r="AC53" s="11"/>
+      <c r="AD53" s="11"/>
+      <c r="AE53" s="11"/>
+      <c r="AF53" s="11"/>
+      <c r="AG53" s="11"/>
+      <c r="AH53" s="11"/>
+      <c r="AI53" s="11"/>
+      <c r="AJ53" s="11"/>
+      <c r="AK53" s="11"/>
+      <c r="AL53" s="11"/>
+      <c r="AM53" s="11"/>
+      <c r="AN53" s="11"/>
+      <c r="AO53" s="11"/>
+      <c r="AP53" s="11"/>
+      <c r="AQ53" s="11"/>
+      <c r="AR53" s="11"/>
+      <c r="AS53" s="11"/>
+      <c r="AT53" s="11"/>
+      <c r="AU53" s="11"/>
+      <c r="AV53" s="11"/>
+      <c r="AW53" s="11"/>
+      <c r="AX53" s="11"/>
+      <c r="AY53" s="11"/>
+      <c r="AZ53" s="11"/>
+      <c r="BA53" s="11"/>
+      <c r="BB53" s="11"/>
+      <c r="BC53" s="11"/>
+      <c r="BD53" s="11"/>
+      <c r="BE53" s="11"/>
+      <c r="BF53" s="11"/>
+      <c r="BG53" s="11"/>
+      <c r="BH53" s="11"/>
+      <c r="BI53" s="11"/>
     </row>
     <row r="54" spans="1:61" customFormat="1" ht="40.25" customHeight="1">
-      <c r="A54" s="66"/>
-      <c r="B54" s="66"/>
-      <c r="C54" s="66"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="50"/>
+      <c r="A54" s="64"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="48"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -13961,11 +13747,11 @@
       <c r="BI54" s="2"/>
     </row>
     <row r="55" spans="1:61" customFormat="1" ht="14.5" customHeight="1">
-      <c r="A55" s="50"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="50"/>
+      <c r="A55" s="48"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -14025,6 +13811,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A54:D54"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:D3"/>
@@ -14037,26 +13828,12 @@
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A54:D54"/>
   </mergeCells>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008BBA552325B3924080398B39C3ED63C8" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="212990b62ff0f7d51d46902d8e3b3ac6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="514d2754-a6d2-444f-bf3c-749523e068c3" xmlns:ns3="c6c44f9e-7a64-4374-a024-9da0cf0f158d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5e562e5a6f491d8b12469724ac56fb6" ns2:_="" ns3:_="">
     <xsd:import namespace="514d2754-a6d2-444f-bf3c-749523e068c3"/>
@@ -14316,23 +14093,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="514d2754-a6d2-444f-bf3c-749523e068c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c6c44f9e-7a64-4374-a024-9da0cf0f158d" xsi:nil="true"/>
-    <_dlc_DocId xmlns="c6c44f9e-7a64-4374-a024-9da0cf0f158d">DZ7YY7R4HHJC-939333020-21529</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="c6c44f9e-7a64-4374-a024-9da0cf0f158d">
-      <Url>https://phecloud.sharepoint.com/teams/StatisticsProductionDivision/_layouts/15/DocIdRedir.aspx?ID=DZ7YY7R4HHJC-939333020-21529</Url>
-      <Description>DZ7YY7R4HHJC-939333020-21529</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -14382,15 +14152,23 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3DF36D6-C1A7-417D-91AD-327D531A4C00}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="514d2754-a6d2-444f-bf3c-749523e068c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c6c44f9e-7a64-4374-a024-9da0cf0f158d" xsi:nil="true"/>
+    <_dlc_DocId xmlns="c6c44f9e-7a64-4374-a024-9da0cf0f158d">DZ7YY7R4HHJC-939333020-21529</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="c6c44f9e-7a64-4374-a024-9da0cf0f158d">
+      <Url>https://phecloud.sharepoint.com/teams/StatisticsProductionDivision/_layouts/15/DocIdRedir.aspx?ID=DZ7YY7R4HHJC-939333020-21529</Url>
+      <Description>DZ7YY7R4HHJC-939333020-21529</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3F4E52B-3FB4-4CFA-B45A-6EE1956702E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14409,7 +14187,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3DF36D6-C1A7-417D-91AD-327D531A4C00}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57771860-C5AA-4121-AC9E-2B96C44AD425}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEC35B8E-17E5-4205-82E9-9BC08D169290}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -14424,12 +14218,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57771860-C5AA-4121-AC9E-2B96C44AD425}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>